--- a/output_validation/05_dimension_overview_in_need.xlsx
+++ b/output_validation/05_dimension_overview_in_need.xlsx
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1050893</v>
+        <v>985277</v>
       </c>
       <c r="D2" t="n">
-        <v>74.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>785395</v>
+        <v>740037</v>
       </c>
       <c r="F2" t="n">
-        <v>10.8</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>113896</v>
+        <v>61511</v>
       </c>
       <c r="H2" t="n">
-        <v>10.6</v>
+        <v>15.1</v>
       </c>
       <c r="I2" t="n">
-        <v>111194</v>
+        <v>149260</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>40407</v>
+        <v>34469</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>1050893</v>
+        <v>985277</v>
       </c>
     </row>
     <row r="3">
@@ -565,31 +565,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>826821</v>
+        <v>754057</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>73.5</v>
       </c>
       <c r="E3" t="n">
-        <v>603451</v>
+        <v>554525</v>
       </c>
       <c r="F3" t="n">
-        <v>11.9</v>
+        <v>5.4</v>
       </c>
       <c r="G3" t="n">
-        <v>97997</v>
+        <v>40499</v>
       </c>
       <c r="H3" t="n">
-        <v>12.1</v>
+        <v>18.3</v>
       </c>
       <c r="I3" t="n">
-        <v>99845</v>
+        <v>137920</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>25528</v>
+        <v>21113</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>826821</v>
+        <v>754057</v>
       </c>
     </row>
     <row r="4">
@@ -613,31 +613,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143427</v>
+        <v>152052</v>
       </c>
       <c r="D4" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="E4" t="n">
-        <v>116675</v>
+        <v>123430</v>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="G4" t="n">
-        <v>7382</v>
+        <v>10442</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="I4" t="n">
-        <v>7675</v>
+        <v>7031</v>
       </c>
       <c r="J4" t="n">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="K4" t="n">
-        <v>11695</v>
+        <v>11150</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>143427</v>
+        <v>152052</v>
       </c>
     </row>
     <row r="5">
@@ -661,31 +661,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65585</v>
+        <v>64922</v>
       </c>
       <c r="D5" t="n">
-        <v>79.3</v>
+        <v>77.5</v>
       </c>
       <c r="E5" t="n">
-        <v>51983</v>
+        <v>50335</v>
       </c>
       <c r="F5" t="n">
-        <v>12.3</v>
+        <v>14.9</v>
       </c>
       <c r="G5" t="n">
-        <v>8099</v>
+        <v>9656</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3469</v>
+        <v>4309</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2034</v>
+        <v>622</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>65585</v>
+        <v>64922</v>
       </c>
     </row>
     <row r="6">
@@ -709,31 +709,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15060</v>
+        <v>14245</v>
       </c>
       <c r="D6" t="n">
-        <v>88.2</v>
+        <v>82.5</v>
       </c>
       <c r="E6" t="n">
-        <v>13287</v>
+        <v>11747</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="G6" t="n">
-        <v>418</v>
+        <v>913</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.6</v>
+        <v>11.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1150</v>
+        <v>1584</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>15060</v>
+        <v>14245</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview_in_need.xlsx
+++ b/output_validation/05_dimension_overview_in_need.xlsx
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>985277</v>
+        <v>2426892</v>
       </c>
       <c r="D2" t="n">
-        <v>75.09999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="E2" t="n">
-        <v>740037</v>
+        <v>2153779</v>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>61511</v>
+        <v>79840</v>
       </c>
       <c r="H2" t="n">
-        <v>15.1</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>149260</v>
+        <v>133685</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>34469</v>
+        <v>59587</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>985277</v>
+        <v>2426892</v>
       </c>
     </row>
     <row r="3">
@@ -565,31 +565,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>754057</v>
+        <v>2047366</v>
       </c>
       <c r="D3" t="n">
-        <v>73.5</v>
+        <v>89.3</v>
       </c>
       <c r="E3" t="n">
-        <v>554525</v>
+        <v>1827377</v>
       </c>
       <c r="F3" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>40499</v>
+        <v>61752</v>
       </c>
       <c r="H3" t="n">
-        <v>18.3</v>
+        <v>5.9</v>
       </c>
       <c r="I3" t="n">
-        <v>137920</v>
+        <v>120827</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>21113</v>
+        <v>37410</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>754057</v>
+        <v>2047366</v>
       </c>
     </row>
     <row r="4">
@@ -613,31 +613,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>152052</v>
+        <v>177568</v>
       </c>
       <c r="D4" t="n">
-        <v>81.2</v>
+        <v>84.8</v>
       </c>
       <c r="E4" t="n">
-        <v>123430</v>
+        <v>150564</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="G4" t="n">
-        <v>10442</v>
+        <v>13671</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7031</v>
+        <v>4189</v>
       </c>
       <c r="J4" t="n">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>11150</v>
+        <v>9144</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>152052</v>
+        <v>177568</v>
       </c>
     </row>
     <row r="5">
@@ -661,31 +661,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64922</v>
+        <v>115024</v>
       </c>
       <c r="D5" t="n">
-        <v>77.5</v>
+        <v>87.8</v>
       </c>
       <c r="E5" t="n">
-        <v>50335</v>
+        <v>100984</v>
       </c>
       <c r="F5" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9656</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4309</v>
+        <v>8669</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>622</v>
+        <v>5371</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>64922</v>
+        <v>115024</v>
       </c>
     </row>
     <row r="6">
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14245</v>
+        <v>86934</v>
       </c>
       <c r="D6" t="n">
-        <v>82.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>11747</v>
+        <v>74854</v>
       </c>
       <c r="F6" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>913</v>
+        <v>4418</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>11.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>1584</v>
+        <v>7662</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14245</v>
+        <v>86934</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview_in_need.xlsx
+++ b/output_validation/05_dimension_overview_in_need.xlsx
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2426892</v>
+        <v>1050893</v>
       </c>
       <c r="D2" t="n">
-        <v>88.7</v>
+        <v>74.7</v>
       </c>
       <c r="E2" t="n">
-        <v>2153779</v>
+        <v>785395</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>10.8</v>
       </c>
       <c r="G2" t="n">
-        <v>79840</v>
+        <v>113896</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
       <c r="I2" t="n">
-        <v>133685</v>
+        <v>111194</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>59587</v>
+        <v>40407</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>2426892</v>
+        <v>1050893</v>
       </c>
     </row>
     <row r="3">
@@ -565,31 +565,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2047366</v>
+        <v>826821</v>
       </c>
       <c r="D3" t="n">
-        <v>89.3</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>1827377</v>
+        <v>603451</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>11.9</v>
       </c>
       <c r="G3" t="n">
-        <v>61752</v>
+        <v>97997</v>
       </c>
       <c r="H3" t="n">
-        <v>5.9</v>
+        <v>12.1</v>
       </c>
       <c r="I3" t="n">
-        <v>120827</v>
+        <v>99845</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>37410</v>
+        <v>25528</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>2047366</v>
+        <v>826821</v>
       </c>
     </row>
     <row r="4">
@@ -613,31 +613,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>177568</v>
+        <v>143427</v>
       </c>
       <c r="D4" t="n">
-        <v>84.8</v>
+        <v>81.3</v>
       </c>
       <c r="E4" t="n">
-        <v>150564</v>
+        <v>116675</v>
       </c>
       <c r="F4" t="n">
-        <v>7.7</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>13671</v>
+        <v>7382</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4189</v>
+        <v>7675</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>9144</v>
+        <v>11695</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>177568</v>
+        <v>143427</v>
       </c>
     </row>
     <row r="5">
@@ -661,31 +661,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>115024</v>
+        <v>65585</v>
       </c>
       <c r="D5" t="n">
-        <v>87.8</v>
+        <v>79.3</v>
       </c>
       <c r="E5" t="n">
-        <v>100984</v>
+        <v>51983</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8099</v>
       </c>
       <c r="H5" t="n">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>8669</v>
+        <v>3469</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5371</v>
+        <v>2034</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>115024</v>
+        <v>65585</v>
       </c>
     </row>
     <row r="6">
@@ -709,31 +709,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86934</v>
+        <v>15060</v>
       </c>
       <c r="D6" t="n">
-        <v>86.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="E6" t="n">
-        <v>74854</v>
+        <v>13287</v>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>4418</v>
+        <v>418</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="K6" t="n">
-        <v>7662</v>
+        <v>1150</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>86934</v>
+        <v>15060</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview_in_need.xlsx
+++ b/output_validation/05_dimension_overview_in_need.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1050893</v>
+        <v>23602299</v>
       </c>
       <c r="D2" t="n">
-        <v>74.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>785395</v>
+        <v>22642378</v>
       </c>
       <c r="F2" t="n">
-        <v>10.8</v>
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>113896</v>
+        <v>75499</v>
       </c>
       <c r="H2" t="n">
-        <v>10.6</v>
+        <v>1.2</v>
       </c>
       <c r="I2" t="n">
-        <v>111194</v>
+        <v>286415</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>40407</v>
+        <v>598007</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -550,46 +550,46 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>1050893</v>
+        <v>23602299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ocap (5-17 y.o.)</t>
+          <t>non_pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>non_pdi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>826821</v>
+        <v>12525253</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>603451</v>
+        <v>11822828</v>
       </c>
       <c r="F3" t="n">
-        <v>11.9</v>
+        <v>0.4</v>
       </c>
       <c r="G3" t="n">
-        <v>97997</v>
+        <v>52304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.1</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>99845</v>
+        <v>227095</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>25528</v>
+        <v>423026</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -598,46 +598,46 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>826821</v>
+        <v>12525253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>idp (5-17 y.o.)</t>
+          <t>pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>pdi</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143427</v>
+        <v>11077047</v>
       </c>
       <c r="D4" t="n">
-        <v>81.3</v>
+        <v>97.7</v>
       </c>
       <c r="E4" t="n">
-        <v>116675</v>
+        <v>10819550</v>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>7382</v>
+        <v>23195</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
-        <v>7675</v>
+        <v>59320</v>
       </c>
       <c r="J4" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="n">
-        <v>11695</v>
+        <v>174981</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -646,103 +646,7 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>143427</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ret (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>65585</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>51983</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8099</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3469</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2034</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" t="n">
-        <v>65585</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ndsp (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15060</v>
-      </c>
-      <c r="D6" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13287</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>418</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>205</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1150</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15060</v>
+        <v>11077047</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview_in_need.xlsx
+++ b/output_validation/05_dimension_overview_in_need.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Population group</t>
+          <t>Groupe de population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TOTAL (5-17 y.o.)</t>
+          <t>TOTAL (5-17 ans)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C2" t="n">

--- a/output_validation/05_dimension_overview_in_need.xlsx
+++ b/output_validation/05_dimension_overview_in_need.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TotN</t>
+          <t>Population totale</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/output_validation/05_dimension_overview_in_need.xlsx
+++ b/output_validation/05_dimension_overview_in_need.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23602299</v>
+        <v>1212250</v>
       </c>
       <c r="D2" t="n">
-        <v>95.90000000000001</v>
+        <v>40.5</v>
       </c>
       <c r="E2" t="n">
-        <v>22642378</v>
+        <v>491129</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>75499</v>
+        <v>49876</v>
       </c>
       <c r="H2" t="n">
-        <v>1.2</v>
+        <v>49.8</v>
       </c>
       <c r="I2" t="n">
-        <v>286415</v>
+        <v>603526</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>598007</v>
+        <v>67720</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -550,46 +550,46 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>23602299</v>
+        <v>1212250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>non_pdi (5-17 y.o.)</t>
+          <t>hote (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>non_pdi</t>
+          <t>hote</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12525253</v>
+        <v>1079110</v>
       </c>
       <c r="D3" t="n">
-        <v>94.40000000000001</v>
+        <v>40.3</v>
       </c>
       <c r="E3" t="n">
-        <v>11822828</v>
+        <v>434615</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="G3" t="n">
-        <v>52304</v>
+        <v>43979</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8</v>
+        <v>50.1</v>
       </c>
       <c r="I3" t="n">
-        <v>227095</v>
+        <v>540693</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>423026</v>
+        <v>59824</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -598,46 +598,46 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>12525253</v>
+        <v>1079110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pdi (5-17 y.o.)</t>
+          <t>idp_host (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pdi</t>
+          <t>idp_host</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11077047</v>
+        <v>66749</v>
       </c>
       <c r="D4" t="n">
-        <v>97.7</v>
+        <v>44.6</v>
       </c>
       <c r="E4" t="n">
-        <v>10819550</v>
+        <v>29787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>23195</v>
+        <v>2561</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>46.3</v>
       </c>
       <c r="I4" t="n">
-        <v>59320</v>
+        <v>30925</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>174981</v>
+        <v>3476</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -646,7 +646,103 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>11077047</v>
+        <v>66749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>retourne (5-17 y.o.)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>retourne</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49422</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18874</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2658</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24380</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3509</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="n">
+        <v>49422</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>idp_site (5-17 y.o.)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>idp_site</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16970</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7853</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>678</v>
+      </c>
+      <c r="H6" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7528</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>911</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16970</v>
       </c>
     </row>
   </sheetData>
